--- a/textos_2.xlsx
+++ b/textos_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian.sanchez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D4C98-13CF-4E02-98BC-25B6F2231794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D7CC0-AB87-430D-9C18-511F6A778119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>La Primera Guerra Mundial, también llamada la Gran Guerra,​ fue un conflicto militar de carácter mundial, aunque centrado en Europa, que empezó el 28 de julio de 1914 y finalizó el 11 de noviembre de 1918, cuando Alemania aceptó las condiciones del armisticio.</t>
   </si>
@@ -448,6 +448,24 @@
   </si>
   <si>
     <t>Los rebeldes hutíes se levantaron en 2015 y expulsaron al Gobierno de Yemen de la capital, Saná, dando inicio a una guerra civil que aún persiste</t>
+  </si>
+  <si>
+    <t>Reforma agraria feminista en Urabá propuso el presidente Gustavo Petro</t>
+  </si>
+  <si>
+    <t>Todas las noticias sobre Gustavo Petro publicadas en EL PAÍS. Información, novedades y última hora sobre Gustavo Petro</t>
+  </si>
+  <si>
+    <t>La Fiscalía de Colombia abre investigación a Nicolás Petro, hijo del presidente, por las acusaciones de su exesposa</t>
+  </si>
+  <si>
+    <t>Todas las noticias, actualidad, análisis y videos de Gustavo Petro, presidente de Colombia. Petro suspende compra de armas a Israel tras fuego contra </t>
+  </si>
+  <si>
+    <t>Gustavo Petro  Fecode pide 10 condiciones para que los maestros y educadores puedan regresar a las clases presenciales </t>
+  </si>
+  <si>
+    <t>Petro endurece su discurso y advierte de que no enterrará la reforma</t>
   </si>
 </sst>
 </file>
@@ -774,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:A147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,43 +1468,73 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="145" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
     </row>

--- a/textos_2.xlsx
+++ b/textos_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian.sanchez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D7CC0-AB87-430D-9C18-511F6A778119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA21B655-6AB6-4241-AA4C-A498A4B1C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>La Primera Guerra Mundial, también llamada la Gran Guerra,​ fue un conflicto militar de carácter mundial, aunque centrado en Europa, que empezó el 28 de julio de 1914 y finalizó el 11 de noviembre de 1918, cuando Alemania aceptó las condiciones del armisticio.</t>
   </si>
@@ -466,6 +466,27 @@
   </si>
   <si>
     <t>Petro endurece su discurso y advierte de que no enterrará la reforma</t>
+  </si>
+  <si>
+    <t>Sitio web oficial del célebre brick de construcción con vínculos a productos, juegos, videos, la tienda LEGO, la historia de LEGO</t>
+  </si>
+  <si>
+    <t>Los bloques LEGO sirven para crear un lenguaje común, que cualquiera puede usar independientemente de su experiencia, posición, educación o cultura</t>
+  </si>
+  <si>
+    <t> LEGO hace que una persona adulta sea capaz de obtener información, ordenarla, exponerla y validarla</t>
+  </si>
+  <si>
+    <t>Compre Lego en cuotas sin interés</t>
+  </si>
+  <si>
+    <t>Los sets de aprendizaje temprano de LEGO Education ayudan a los peques a tener conocimiento de sí mismos</t>
+  </si>
+  <si>
+    <t>Encuentra en Tienda LEGO diferentes sets de construcción para demostrar toda tu creatividad. Consigue sets Architecture</t>
+  </si>
+  <si>
+    <t>Lego compra en tienda online Linio Colombia con descuentos</t>
   </si>
 </sst>
 </file>
@@ -792,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A147"/>
+  <dimension ref="A1:A154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,61 +1501,96 @@
     </row>
     <row r="136" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>140</v>
       </c>
     </row>
